--- a/workspace/Allentown list.xlsx
+++ b/workspace/Allentown list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\code\comic-book-pedigree-data\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CDDD7C-F97B-402B-AEA2-027168A1508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A89F3-387A-4549-849A-2DB1E740AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="99">
   <si>
     <t>All Winners</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>9 (c1)</t>
+  </si>
+  <si>
+    <t>1/3 Highest Graded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/1 highest graded </t>
+  </si>
+  <si>
+    <t>Highest graded is a 7.5</t>
+  </si>
+  <si>
+    <t>No longer in the census although there is a GPA sale</t>
   </si>
 </sst>
 </file>
@@ -672,8 +684,8 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2368,6 +2380,9 @@
       <c r="F78">
         <v>9.4</v>
       </c>
+      <c r="H78" s="5">
+        <v>35000</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -2385,6 +2400,9 @@
       <c r="F79">
         <v>9.1999999999999993</v>
       </c>
+      <c r="H79" s="5">
+        <v>10000</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -2402,8 +2420,11 @@
       <c r="F80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -2419,8 +2440,11 @@
       <c r="F81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -2433,11 +2457,14 @@
       <c r="E82">
         <v>230</v>
       </c>
-      <c r="F82">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82" s="5">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -2453,8 +2480,11 @@
       <c r="F83">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -2471,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>56</v>
       </c>
@@ -2490,8 +2520,11 @@
       <c r="F85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>56</v>
       </c>
@@ -2510,8 +2543,11 @@
       <c r="F86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -2530,8 +2566,11 @@
       <c r="F87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -2550,8 +2589,11 @@
       <c r="F88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -2570,8 +2612,11 @@
       <c r="F89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2635,14 @@
       <c r="G90">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="5">
+        <v>250000</v>
+      </c>
+      <c r="I90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2610,8 +2661,14 @@
       <c r="G91">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91" s="5">
+        <v>75000</v>
+      </c>
+      <c r="I91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -2630,8 +2687,11 @@
       <c r="F92">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>61</v>
       </c>
@@ -2650,8 +2710,14 @@
       <c r="F93">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="5">
+        <v>20000</v>
+      </c>
+      <c r="I93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -2670,8 +2736,11 @@
       <c r="G94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>63</v>
       </c>
@@ -2690,8 +2759,11 @@
       <c r="F95">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -2710,8 +2782,11 @@
       <c r="F96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -2730,8 +2805,11 @@
       <c r="F97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>66</v>
       </c>
@@ -2750,8 +2828,11 @@
       <c r="F98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>67</v>
       </c>
@@ -2770,8 +2851,11 @@
       <c r="F99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -2787,11 +2871,17 @@
       <c r="E100">
         <v>150</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="5">
+        <v>7500</v>
+      </c>
+      <c r="I100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -2810,8 +2900,11 @@
       <c r="G101">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -2830,8 +2923,11 @@
       <c r="F102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -2850,8 +2946,11 @@
       <c r="G103">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -2870,8 +2969,11 @@
       <c r="F104">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104" s="5">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -2890,8 +2992,11 @@
       <c r="F105">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>72</v>
       </c>
@@ -2910,8 +3015,11 @@
       <c r="F106">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -2930,8 +3038,11 @@
       <c r="F107">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -2944,8 +3055,11 @@
       <c r="F108">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3078,11 @@
       <c r="F109">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -2984,8 +3101,11 @@
       <c r="G110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>74</v>
       </c>
@@ -3004,8 +3124,11 @@
       <c r="F111">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -3024,8 +3147,11 @@
       <c r="F112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>75</v>
       </c>
@@ -3044,8 +3170,14 @@
       <c r="G113">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113" s="5">
+        <v>25000</v>
+      </c>
+      <c r="I113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>75</v>
       </c>
@@ -3064,8 +3196,14 @@
       <c r="G114">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" s="5">
+        <v>15000</v>
+      </c>
+      <c r="I114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -3082,7 +3220,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -3099,7 +3237,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>46</v>
       </c>
@@ -3116,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -3133,7 +3271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>46</v>
       </c>
@@ -3150,7 +3288,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>46</v>
       </c>
@@ -3167,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>46</v>
       </c>
@@ -3184,7 +3322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -3221,7 +3359,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -3238,7 +3376,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>48</v>
       </c>
@@ -3255,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -3272,7 +3410,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -3289,7 +3427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>48</v>
       </c>

--- a/workspace/Allentown list.xlsx
+++ b/workspace/Allentown list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\code\comic-book-pedigree-data\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A89F3-387A-4549-849A-2DB1E740AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68901ED-EFDD-41DF-89D3-E95A5CB9DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="98">
   <si>
     <t>All Winners</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>Highest graded is a 7.5</t>
-  </si>
-  <si>
-    <t>No longer in the census although there is a GPA sale</t>
   </si>
 </sst>
 </file>
@@ -681,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2786,7 +2783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>66</v>
       </c>
@@ -2832,7 +2829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>67</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -2871,17 +2868,11 @@
       <c r="E100">
         <v>150</v>
       </c>
-      <c r="G100">
-        <v>9.1999999999999993</v>
-      </c>
       <c r="H100" s="5">
         <v>7500</v>
       </c>
-      <c r="I100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -2904,7 +2895,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -2927,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -2950,7 +2941,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2964,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -2996,7 +2987,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>72</v>
       </c>
@@ -3019,7 +3010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -3042,7 +3033,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -3059,7 +3050,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>74</v>
       </c>
@@ -3082,7 +3073,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -3105,7 +3096,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>74</v>
       </c>
@@ -3128,7 +3119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -3219,6 +3210,9 @@
       <c r="G115">
         <v>9.4</v>
       </c>
+      <c r="H115" s="5">
+        <v>12000</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
@@ -3236,22 +3230,22 @@
       <c r="F116">
         <v>9.4</v>
       </c>
+      <c r="H116" s="5">
+        <v>2400</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>46</v>
       </c>
       <c r="B117">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>9.4</v>
+      </c>
+      <c r="H117" s="5">
+        <v>2500</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -3259,16 +3253,19 @@
         <v>46</v>
       </c>
       <c r="B118">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F118">
         <v>8</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -3276,16 +3273,19 @@
         <v>46</v>
       </c>
       <c r="B119">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
-      <c r="G119">
-        <v>9.4</v>
+      <c r="F119">
+        <v>8</v>
+      </c>
+      <c r="H119" s="5">
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -3293,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="B120">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -3301,8 +3301,14 @@
       <c r="D120" t="s">
         <v>15</v>
       </c>
-      <c r="F120">
-        <v>8</v>
+      <c r="G120">
+        <v>9.4</v>
+      </c>
+      <c r="H120" s="5">
+        <v>1200</v>
+      </c>
+      <c r="I120" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -3310,10 +3316,10 @@
         <v>46</v>
       </c>
       <c r="B121">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
@@ -3321,25 +3327,28 @@
       <c r="F121">
         <v>8</v>
       </c>
+      <c r="H121" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
-      <c r="E122">
-        <v>1960</v>
-      </c>
-      <c r="G122" t="s">
-        <v>77</v>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="H122" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -3347,7 +3356,7 @@
         <v>47</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
@@ -3356,24 +3365,36 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>1000</v>
+        <v>1960</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" s="5">
+        <v>20000</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
+      <c r="E124">
+        <v>1000</v>
+      </c>
       <c r="G124">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H124" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -3381,16 +3402,19 @@
         <v>48</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
-      <c r="F125">
-        <v>8</v>
+      <c r="G125">
+        <v>9.4</v>
+      </c>
+      <c r="H125" s="5">
+        <v>75000</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -3398,16 +3422,19 @@
         <v>48</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="F126">
-        <v>9.1999999999999993</v>
+        <v>8</v>
+      </c>
+      <c r="H126" s="5">
+        <v>7500</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -3415,16 +3442,16 @@
         <v>48</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="F127">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -3432,10 +3459,10 @@
         <v>48</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -3449,16 +3476,16 @@
         <v>48</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
-      <c r="G129">
-        <v>9.4</v>
+      <c r="F129">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -3466,16 +3493,16 @@
         <v>48</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
-      <c r="F130">
-        <v>9</v>
+      <c r="G130">
+        <v>9.4</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -3483,7 +3510,7 @@
         <v>48</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
@@ -3491,8 +3518,8 @@
       <c r="D131" t="s">
         <v>15</v>
       </c>
-      <c r="G131">
-        <v>9.1999999999999993</v>
+      <c r="F131">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -3500,16 +3527,16 @@
         <v>48</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>270</v>
+        <v>15</v>
+      </c>
+      <c r="G132">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -3517,16 +3544,16 @@
         <v>48</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -3534,16 +3561,16 @@
         <v>48</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
-      <c r="G134">
-        <v>9.6</v>
+      <c r="F134">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -3551,7 +3578,7 @@
         <v>48</v>
       </c>
       <c r="B135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -3559,8 +3586,8 @@
       <c r="D135" t="s">
         <v>15</v>
       </c>
-      <c r="F135">
-        <v>9.4</v>
+      <c r="G135">
+        <v>9.6</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -3568,7 +3595,7 @@
         <v>48</v>
       </c>
       <c r="B136">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -3585,38 +3612,55 @@
         <v>48</v>
       </c>
       <c r="B137">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>78</v>
+      </c>
+      <c r="F138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>76</v>
       </c>
-      <c r="B138">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
         <v>35</v>
       </c>
-      <c r="D138" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138">
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139">
         <v>150</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <v>9.4</v>
       </c>
     </row>

--- a/workspace/Allentown list.xlsx
+++ b/workspace/Allentown list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob\code\comic-book-pedigree-data\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68901ED-EFDD-41DF-89D3-E95A5CB9DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1605F4-0EA9-499A-BD3D-8853CFB5CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="102">
   <si>
     <t>All Winners</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>Highest graded is a 7.5</t>
+  </si>
+  <si>
+    <t>Highest graded is the church copy at 9.0</t>
+  </si>
+  <si>
+    <t>1/2 highest grade, tied with Church copy</t>
+  </si>
+  <si>
+    <t>Highest graded is Church copy at 8.5</t>
+  </si>
+  <si>
+    <t>2 at 9.0 are highest graded</t>
   </si>
 </sst>
 </file>
@@ -681,8 +693,8 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H2:H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3453,6 +3465,12 @@
       <c r="F127">
         <v>9.1999999999999993</v>
       </c>
+      <c r="H127" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I127" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
@@ -3470,8 +3488,11 @@
       <c r="F128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128" s="5">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -3487,8 +3508,11 @@
       <c r="F129">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -3504,8 +3528,14 @@
       <c r="G130">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -3521,8 +3551,14 @@
       <c r="F131">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H131" s="5">
+        <v>25000</v>
+      </c>
+      <c r="I131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -3538,8 +3574,14 @@
       <c r="G132">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132" s="5">
+        <v>25000</v>
+      </c>
+      <c r="I132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -3555,8 +3597,14 @@
       <c r="E133">
         <v>270</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F133">
+        <v>6</v>
+      </c>
+      <c r="H133" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -3572,8 +3620,11 @@
       <c r="F134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>48</v>
       </c>
@@ -3589,8 +3640,14 @@
       <c r="G135">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135" s="5">
+        <v>40000</v>
+      </c>
+      <c r="I135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>48</v>
       </c>
@@ -3603,11 +3660,17 @@
       <c r="D136" t="s">
         <v>15</v>
       </c>
-      <c r="F136">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G136">
+        <v>8</v>
+      </c>
+      <c r="H136" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -3623,8 +3686,14 @@
       <c r="F137">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>48</v>
       </c>
@@ -3643,8 +3712,11 @@
       <c r="F138">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>76</v>
       </c>
@@ -3662,6 +3734,9 @@
       </c>
       <c r="F139">
         <v>9.4</v>
+      </c>
+      <c r="H139" s="5">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
